--- a/libs/excelData/partsDataTable/partsAnalysisTable.xlsx
+++ b/libs/excelData/partsDataTable/partsAnalysisTable.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="14080" windowWidth="51200" windowHeight="13640" tabRatio="769" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="42100" windowHeight="11700" tabRatio="769"/>
   </bookViews>
   <sheets>
     <sheet name="L_11200_9.1" sheetId="2" r:id="rId1"/>
     <sheet name="L_1750_9.1" sheetId="3" r:id="rId2"/>
-    <sheet name="L_1500_84m_8.1" sheetId="4" r:id="rId3"/>
-    <sheet name="L_1500_50m_8.1" sheetId="5" r:id="rId4"/>
+    <sheet name="L_1500_50m_8.1" sheetId="5" r:id="rId3"/>
+    <sheet name="L_1500_84m_8.1" sheetId="4" r:id="rId4"/>
     <sheet name="L_1450_8.1" sheetId="6" r:id="rId5"/>
     <sheet name="L_1400_7.1" sheetId="7" r:id="rId6"/>
     <sheet name="L_1350_6.1" sheetId="8" r:id="rId7"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="171">
   <si>
     <t>F</t>
   </si>
@@ -322,9 +322,6 @@
     <t>TYSN</t>
   </si>
   <si>
-    <t>2m_NM_rs</t>
-  </si>
-  <si>
     <t>TYVEF</t>
   </si>
   <si>
@@ -374,9 +371,6 @@
     <t>7m_N_head</t>
   </si>
   <si>
-    <t>F87.5m_nsbs</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
@@ -423,9 +417,6 @@
   </si>
   <si>
     <t>THK|TNZHK</t>
-  </si>
-  <si>
-    <t>THK|TNZK</t>
   </si>
   <si>
     <t>T7YVEV3V2F|NZF</t>
@@ -600,6 +591,41 @@
   </si>
   <si>
     <t>F9m_nsbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F8.75m_nsbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F8.75m_nsbs</t>
+  </si>
+  <si>
+    <t>F8.75m_nsbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F8.75m_nsbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1m_NM_h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,7 +753,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -749,8 +775,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,15 +880,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="27">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="하이퍼링크" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="하이퍼링크" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="25" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1088,13 +1197,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ31"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="AH57" sqref="AH57"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="AR13" sqref="AR13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="43" width="8.83203125" customWidth="1"/>
+    <col min="1" max="13" width="8.83203125" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
+    <col min="15" max="25" width="8.83203125" customWidth="1"/>
+    <col min="26" max="26" width="15.6640625" customWidth="1"/>
+    <col min="27" max="27" width="14" customWidth="1"/>
+    <col min="28" max="28" width="11.33203125" customWidth="1"/>
+    <col min="29" max="29" width="13.5" customWidth="1"/>
+    <col min="30" max="30" width="12.5" customWidth="1"/>
+    <col min="31" max="31" width="13.6640625" customWidth="1"/>
+    <col min="32" max="32" width="12.33203125" customWidth="1"/>
+    <col min="33" max="33" width="13" customWidth="1"/>
+    <col min="34" max="35" width="8.83203125" customWidth="1"/>
+    <col min="36" max="36" width="11.33203125" customWidth="1"/>
+    <col min="37" max="37" width="17.5" customWidth="1"/>
+    <col min="38" max="38" width="13" customWidth="1"/>
+    <col min="39" max="39" width="15.83203125" customWidth="1"/>
+    <col min="40" max="40" width="13.33203125" customWidth="1"/>
+    <col min="41" max="41" width="11" customWidth="1"/>
+    <col min="42" max="42" width="13.5" customWidth="1"/>
+    <col min="43" max="43" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -1117,7 +1245,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>21</v>
@@ -1141,91 +1269,91 @@
         <v>27</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
@@ -1403,91 +1531,91 @@
         <v>21</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AM3" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AP3" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AQ3" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -1515,7 +1643,7 @@
         <v>34</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>30</v>
@@ -1527,7 +1655,7 @@
         <v>34</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>3</v>
@@ -1640,7 +1768,7 @@
         <v>35</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
@@ -1773,7 +1901,7 @@
         <v>31</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2" t="s">
@@ -1879,7 +2007,7 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1995,7 +2123,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>7</v>
@@ -2103,7 +2231,7 @@
         <v>30</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2448,22 +2576,22 @@
         <v>6</v>
       </c>
       <c r="AL13" s="2" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="AM13" s="2" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="AN13" s="2" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="AO13" s="2" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="AP13" s="2" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="AQ13" s="2" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
@@ -2747,6 +2875,26 @@
         <v>15</v>
       </c>
     </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="7"/>
@@ -2909,7 +3057,7 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -2932,7 +3080,7 @@
         <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>56</v>
@@ -2941,49 +3089,49 @@
         <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -3071,49 +3219,49 @@
         <v>38</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -3122,19 +3270,19 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>50</v>
@@ -3152,7 +3300,7 @@
         <v>50</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>1</v>
@@ -3197,28 +3345,28 @@
         <v>7</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="N5" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>50</v>
@@ -3251,33 +3399,33 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>52</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>50</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>50</v>
@@ -3307,7 +3455,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>52</v>
@@ -3316,21 +3464,21 @@
         <v>52</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>50</v>
@@ -3355,7 +3503,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>52</v>
@@ -3367,7 +3515,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>52</v>
@@ -3376,10 +3524,10 @@
         <v>52</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>50</v>
@@ -3399,7 +3547,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>52</v>
@@ -3409,7 +3557,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>52</v>
@@ -3421,7 +3569,7 @@
         <v>52</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -3439,7 +3587,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3447,7 +3595,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>52</v>
@@ -3481,7 +3629,7 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>52</v>
@@ -3513,7 +3661,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>52</v>
@@ -3543,7 +3691,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
@@ -3618,6 +3766,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3645,7 +3794,7 @@
         <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3682,7 +3831,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>74</v>
@@ -3697,7 +3846,7 @@
         <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3802,16 +3951,16 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3860,7 +4009,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>74</v>
@@ -3869,7 +4018,7 @@
         <v>74</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3881,7 +4030,7 @@
         <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>74</v>
@@ -3900,7 +4049,7 @@
         <v>77</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -4004,7 +4153,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -4020,13 +4169,13 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4069,7 +4218,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>74</v>
@@ -4087,7 +4236,7 @@
         <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>74</v>
@@ -4103,7 +4252,7 @@
         <v>77</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4185,7 +4334,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9:Q9"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -4204,19 +4353,19 @@
         <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4277,16 +4426,16 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>74</v>
@@ -4304,16 +4453,16 @@
         <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>77</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>74</v>
@@ -4326,17 +4475,17 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4435,7 +4584,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -4451,16 +4600,16 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -4509,10 +4658,10 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>74</v>
@@ -4533,7 +4682,7 @@
         <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>74</v>
@@ -4550,7 +4699,7 @@
         <v>77</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -4678,10 +4827,10 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4718,7 +4867,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>74</v>
@@ -4733,7 +4882,7 @@
         <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4812,7 +4961,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="P38" sqref="P37:P38"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -4831,16 +4980,16 @@
         <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -4895,10 +5044,10 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>74</v>
@@ -4907,7 +5056,7 @@
         <v>74</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -4922,10 +5071,10 @@
         <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>77</v>
@@ -5033,7 +5182,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -5049,10 +5198,10 @@
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5089,10 +5238,10 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5143,12 +5292,14 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="43" width="8.83203125" customWidth="1"/>
+    <col min="1" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="43" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5162,10 +5313,10 @@
         <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>94</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5208,13 +5359,13 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5273,7 +5424,7 @@
   <dimension ref="A1:AW31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AJ53" sqref="AJ53"/>
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -5281,7 +5432,11 @@
     <col min="1" max="6" width="8.83203125" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="43" width="8.83203125" customWidth="1"/>
+    <col min="9" max="11" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="13" max="27" width="8.83203125" customWidth="1"/>
+    <col min="28" max="28" width="12.1640625" customWidth="1"/>
+    <col min="29" max="43" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.25">
@@ -5313,124 +5468,124 @@
         <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
@@ -5770,7 +5925,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>1</v>
@@ -5915,7 +6070,7 @@
         <v>49</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>50</v>
@@ -6186,7 +6341,7 @@
         <v>31</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>7</v>
@@ -6326,7 +6481,7 @@
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>7</v>
@@ -6456,7 +6611,7 @@
         <v>30</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -6570,7 +6725,9 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -7180,7 +7337,7 @@
         <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7217,10 +7374,10 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7266,7 +7423,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -7285,7 +7442,7 @@
         <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -7322,10 +7479,10 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -7371,7 +7528,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+      <selection activeCell="O18" sqref="O17:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -7390,7 +7547,7 @@
         <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -7427,7 +7584,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>77</v>
@@ -7479,7 +7636,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -7526,7 +7683,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -7535,7 +7692,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -7565,7 +7722,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="AJ36" sqref="AJ36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -7612,7 +7769,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -7621,1222 +7778,22 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="43" width="8.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="1">
-        <v>6</v>
-      </c>
-      <c r="N2" s="1">
-        <v>14</v>
-      </c>
-      <c r="O2" s="1">
-        <v>21</v>
-      </c>
-      <c r="P2" s="1">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>35</v>
-      </c>
-      <c r="R2" s="1">
-        <v>42</v>
-      </c>
-      <c r="S2" s="1">
-        <v>49</v>
-      </c>
-      <c r="T2" s="1">
-        <v>56</v>
-      </c>
-      <c r="U2" s="1">
-        <v>63</v>
-      </c>
-      <c r="V2" s="1">
-        <v>21</v>
-      </c>
-      <c r="W2" s="1">
-        <v>28</v>
-      </c>
-      <c r="X2" s="1">
-        <v>35</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>42</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>49</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>56</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>63</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>70</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>77</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>84</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF6" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF7" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF8" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF9" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF10" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF11" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="J25" s="7"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="11"/>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="R31" s="8"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="R32" s="8"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-    </row>
-    <row r="33" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="R33" s="8"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-    </row>
-    <row r="34" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="7"/>
-    </row>
-    <row r="35" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="7"/>
-    </row>
-    <row r="36" spans="18:28" x14ac:dyDescent="0.25">
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -8894,64 +7851,64 @@
         <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -9183,40 +8140,40 @@
         <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>65</v>
@@ -9289,13 +8246,13 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>0</v>
@@ -9307,22 +8264,22 @@
         <v>46</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>0</v>
@@ -9338,13 +8295,13 @@
         <v>50</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="X5" s="2" t="s">
         <v>50</v>
@@ -9362,10 +8319,10 @@
         <v>50</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AE5" s="2" t="s">
         <v>51</v>
@@ -9377,13 +8334,13 @@
         <v>50</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
@@ -9396,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>0</v>
@@ -9405,7 +8362,7 @@
         <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>7</v>
@@ -9449,10 +8406,10 @@
         <v>67</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2" t="s">
@@ -9471,19 +8428,19 @@
         <v>67</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -9504,19 +8461,19 @@
         <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3" t="s">
@@ -9589,13 +8546,13 @@
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>30</v>
@@ -9680,7 +8637,7 @@
         <v>52</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
@@ -10214,12 +9171,1215 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="12" width="8.83203125" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
+    <col min="14" max="43" width="8.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="1">
+        <v>6</v>
+      </c>
+      <c r="N2" s="1">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1">
+        <v>21</v>
+      </c>
+      <c r="P2" s="1">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>35</v>
+      </c>
+      <c r="R2" s="1">
+        <v>42</v>
+      </c>
+      <c r="S2" s="1">
+        <v>49</v>
+      </c>
+      <c r="T2" s="1">
+        <v>56</v>
+      </c>
+      <c r="U2" s="1">
+        <v>63</v>
+      </c>
+      <c r="V2" s="1">
+        <v>21</v>
+      </c>
+      <c r="W2" s="1">
+        <v>28</v>
+      </c>
+      <c r="X2" s="1">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>49</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>56</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>63</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>70</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>77</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>84</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="J25" s="7"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="11"/>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="R31" s="8"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="R32" s="8"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+    </row>
+    <row r="33" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="R33" s="8"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+    </row>
+    <row r="34" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="7"/>
+    </row>
+    <row r="35" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="7"/>
+    </row>
+    <row r="36" spans="18:28" x14ac:dyDescent="0.25">
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="AR13" sqref="AR13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -10244,112 +10404,112 @@
         <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
@@ -10608,13 +10768,13 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>79</v>
@@ -10856,7 +11016,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="3" t="s">
@@ -11905,13 +12065,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="112" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="43" width="8.83203125" customWidth="1"/>
+    <col min="1" max="14" width="8.83203125" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="43" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -11937,61 +12099,61 @@
         <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -12169,13 +12331,13 @@
         <v>76</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>50</v>
@@ -12199,7 +12361,7 @@
         <v>50</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>50</v>
@@ -12254,10 +12416,10 @@
         <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>50</v>
@@ -12278,16 +12440,16 @@
         <v>82</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>51</v>
@@ -12319,10 +12481,10 @@
         <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
@@ -12332,16 +12494,16 @@
         <v>52</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>51</v>
@@ -12360,16 +12522,16 @@
         <v>53</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="Y6" s="2" t="s">
         <v>51</v>
@@ -12408,7 +12570,7 @@
         <v>52</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -12434,10 +12596,10 @@
         <v>52</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -12881,12 +13043,16 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="43" width="8.83203125" customWidth="1"/>
+    <col min="1" max="13" width="8.83203125" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" customWidth="1"/>
+    <col min="15" max="25" width="8.83203125" customWidth="1"/>
+    <col min="26" max="26" width="18.6640625" customWidth="1"/>
+    <col min="27" max="43" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -12903,70 +13069,70 @@
         <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -13072,25 +13238,25 @@
         <v>38</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>81</v>
@@ -13138,16 +13304,16 @@
         <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>49</v>
@@ -13214,19 +13380,19 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>49</v>
@@ -13241,16 +13407,16 @@
         <v>8</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>49</v>
@@ -13262,10 +13428,10 @@
         <v>8</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V5" s="2" t="s">
         <v>8</v>
@@ -13274,10 +13440,10 @@
         <v>8</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>8</v>
@@ -13293,20 +13459,20 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>49</v>
@@ -13322,10 +13488,10 @@
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>49</v>
@@ -13340,19 +13506,19 @@
         <v>49</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -13366,7 +13532,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>7</v>
@@ -13374,36 +13540,36 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V7" s="3" t="s">
         <v>49</v>
@@ -13418,7 +13584,7 @@
         <v>49</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -13433,49 +13599,49 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="U8" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="V8" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>49</v>
@@ -13498,41 +13664,41 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="X9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="Z9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -13560,19 +13726,19 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -13601,16 +13767,16 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -13642,7 +13808,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -13871,13 +14037,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="104" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="43" width="8.83203125" customWidth="1"/>
+    <col min="1" max="14" width="8.83203125" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="30" width="8.83203125" customWidth="1"/>
+    <col min="31" max="31" width="13.6640625" customWidth="1"/>
+    <col min="32" max="43" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -13891,7 +14061,7 @@
         <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>56</v>
@@ -13900,79 +14070,79 @@
         <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -14090,79 +14260,79 @@
         <v>38</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -14171,19 +14341,19 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>1</v>
@@ -14210,7 +14380,7 @@
         <v>50</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>1</v>
@@ -14276,46 +14446,46 @@
         <v>7</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="Q5" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>50</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>50</v>
@@ -14360,57 +14530,57 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>52</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>50</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>52</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>50</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y6" s="2" t="s">
         <v>50</v>
@@ -14447,10 +14617,10 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>52</v>
@@ -14459,7 +14629,7 @@
         <v>52</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>52</v>
@@ -14468,10 +14638,10 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U7" s="3" t="s">
         <v>52</v>
@@ -14480,22 +14650,22 @@
         <v>52</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AA7" s="3" t="s">
         <v>50</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC7" s="3" t="s">
         <v>50</v>
@@ -14522,10 +14692,10 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>52</v>
@@ -14539,10 +14709,10 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>52</v>
@@ -14557,16 +14727,16 @@
         <v>52</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>52</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE8" s="3" t="s">
         <v>50</v>
@@ -14589,10 +14759,10 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -14602,10 +14772,10 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>52</v>
@@ -14626,7 +14796,7 @@
         <v>52</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
@@ -14657,10 +14827,10 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA10" s="2" t="s">
         <v>52</v>
@@ -14708,10 +14878,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC11" s="3" t="s">
         <v>52</v>
@@ -14755,10 +14925,10 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE12" s="3" t="s">
         <v>52</v>
@@ -14798,7 +14968,7 @@
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="3:26" x14ac:dyDescent="0.25">
@@ -15127,11 +15297,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView zoomScale="88" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="43" width="8.83203125" customWidth="1"/>
+    <col min="1" max="11" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="23" width="8.83203125" customWidth="1"/>
+    <col min="24" max="24" width="13.1640625" customWidth="1"/>
+    <col min="25" max="43" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -15148,64 +15324,64 @@
         <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -15311,49 +15487,49 @@
         <v>38</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -15365,25 +15541,25 @@
         <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>50</v>
@@ -15401,7 +15577,7 @@
         <v>50</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>1</v>
@@ -15453,28 +15629,28 @@
         <v>7</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="Q5" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>50</v>
@@ -15513,36 +15689,36 @@
         <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>52</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>50</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>50</v>
@@ -15577,7 +15753,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>52</v>
@@ -15586,21 +15762,21 @@
         <v>52</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V7" s="3" t="s">
         <v>50</v>
@@ -15628,7 +15804,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>52</v>
@@ -15640,7 +15816,7 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>52</v>
@@ -15649,10 +15825,10 @@
         <v>52</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X8" s="3" t="s">
         <v>50</v>
@@ -15675,7 +15851,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>52</v>
@@ -15685,7 +15861,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>52</v>
@@ -15697,7 +15873,7 @@
         <v>52</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -15718,7 +15894,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -15726,7 +15902,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>52</v>
@@ -15763,7 +15939,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W11" s="3" t="s">
         <v>52</v>
@@ -15798,7 +15974,7 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>52</v>
@@ -15831,7 +16007,7 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -16007,5 +16183,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>